--- a/public/filetemplate/data_siswa.xlsx
+++ b/public/filetemplate/data_siswa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afdhal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DQBJX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D2553-8AF3-4B45-9FCB-5961E82BC89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DEB324-3AEF-416C-9820-162159A99335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CCACAD4C-BB0A-40C2-9DB3-DC4066CF0766}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CCACAD4C-BB0A-40C2-9DB3-DC4066CF0766}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,21 +400,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F66C3E-EB2D-4DB2-AEF5-70708BE3F71A}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV71" workbookViewId="0">
-      <selection activeCell="CJ87" sqref="CJ87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
